--- a/dev/fhir-ig/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T08:09:08+00:00</t>
+    <t>2025-10-09T11:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2697,7 +2697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>138</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>144</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>189</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>216</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>227</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>243</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>307</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>313</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>319</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>330</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>334</v>
       </c>
@@ -8147,12 +8147,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN57">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/dev/fhir-ig/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:26:42+00:00</t>
+    <t>2025-10-09T11:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:30:09+00:00</t>
+    <t>2025-10-09T11:39:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:39:09+00:00</t>
+    <t>2025-10-09T11:50:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:50:35+00:00</t>
+    <t>2025-10-15T08:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
